--- a/inventario_clasificacion_activo.xlsx
+++ b/inventario_clasificacion_activo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Reporte de inventario de clasificación de activo</t>
   </si>
@@ -68,7 +68,7 @@
     <t>Disponibilidad</t>
   </si>
   <si>
-    <t>Nuevo</t>
+    <t>NuevoB</t>
   </si>
   <si>
     <t>Valor</t>
@@ -95,10 +95,7 @@
     <t>Nuevo Proceso</t>
   </si>
   <si>
-    <t>asda</t>
-  </si>
-  <si>
-    <t>kugk</t>
+    <t>ActivoA</t>
   </si>
   <si>
     <t>Software</t>
@@ -113,31 +110,10 @@
     <t>Nuevo Puesto</t>
   </si>
   <si>
-    <t>Valor A</t>
+    <t>Valor B</t>
   </si>
   <si>
     <t>Registrado</t>
-  </si>
-  <si>
-    <t>asda1d12d12d</t>
-  </si>
-  <si>
-    <t>des prueba</t>
-  </si>
-  <si>
-    <t>Valor B</t>
-  </si>
-  <si>
-    <t>asdada</t>
-  </si>
-  <si>
-    <t>jygy</t>
-  </si>
-  <si>
-    <t>jkbkj</t>
-  </si>
-  <si>
-    <t>Borrador</t>
   </si>
 </sst>
 </file>
@@ -503,7 +479,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:Z6"/>
@@ -621,7 +597,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -642,163 +618,43 @@
         <v>26</v>
       </c>
       <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>28</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>29</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
-      <c r="Q7"/>
+      <c r="Q7">
+        <v>3</v>
+      </c>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S7" t="s">
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8"/>
-      <c r="R8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
         <v>32</v>
-      </c>
-      <c r="S9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/inventario_clasificacion_activo.xlsx
+++ b/inventario_clasificacion_activo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Reporte de inventario de clasificación de activo</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Integridad</t>
   </si>
   <si>
-    <t>Disponibilidad</t>
-  </si>
-  <si>
-    <t>NuevoB</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
@@ -110,7 +104,7 @@
     <t>Nuevo Puesto</t>
   </si>
   <si>
-    <t>Valor B</t>
+    <t>Valor A</t>
   </si>
   <si>
     <t>Registrado</t>
@@ -582,12 +576,8 @@
       <c r="R6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -597,64 +587,58 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7">
         <v>3</v>
       </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/inventario_clasificacion_activo.xlsx
+++ b/inventario_clasificacion_activo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Reporte de inventario de clasificación de activo</t>
   </si>
@@ -65,6 +65,9 @@
     <t>Integridad</t>
   </si>
   <si>
+    <t>Disponibilidad</t>
+  </si>
+  <si>
     <t>Valor</t>
   </si>
   <si>
@@ -108,6 +111,21 @@
   </si>
   <si>
     <t>Registrado</t>
+  </si>
+  <si>
+    <t>jygy</t>
+  </si>
+  <si>
+    <t>kugk</t>
+  </si>
+  <si>
+    <t>Valor C</t>
+  </si>
+  <si>
+    <t>jkbkj</t>
+  </si>
+  <si>
+    <t>Borrador</t>
   </si>
 </sst>
 </file>
@@ -473,7 +491,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:Z6"/>
@@ -576,7 +594,9 @@
       <c r="R6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -590,40 +610,40 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -631,14 +651,74 @@
       <c r="O7">
         <v>3</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" t="s">
-        <v>30</v>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8"/>
+      <c r="Q8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/inventario_clasificacion_activo.xlsx
+++ b/inventario_clasificacion_activo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Reporte de inventario de clasificación de activo</t>
   </si>
@@ -62,10 +62,13 @@
     <t>Confidencialidad</t>
   </si>
   <si>
+    <t>Disponibilidad</t>
+  </si>
+  <si>
     <t>Integridad</t>
   </si>
   <si>
-    <t>Disponibilidad</t>
+    <t>Automatizacion</t>
   </si>
   <si>
     <t>Valor</t>
@@ -110,22 +113,22 @@
     <t>Valor A</t>
   </si>
   <si>
-    <t>Registrado</t>
-  </si>
-  <si>
-    <t>jygy</t>
-  </si>
-  <si>
-    <t>kugk</t>
-  </si>
-  <si>
-    <t>Valor C</t>
-  </si>
-  <si>
-    <t>jkbkj</t>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>Valor B</t>
   </si>
   <si>
     <t>Borrador</t>
+  </si>
+  <si>
+    <t>asd12asda</t>
+  </si>
+  <si>
+    <t>asdasd</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:Z6"/>
@@ -597,7 +600,9 @@
       <c r="S6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="2"/>
+      <c r="T6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -607,46 +612,46 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -654,71 +659,141 @@
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="Q7" t="s">
-        <v>30</v>
+      <c r="Q7">
+        <v>8</v>
       </c>
       <c r="R7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="S7" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="T7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
         <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
         <v>27</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J9" t="s">
         <v>28</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K9" t="s">
         <v>29</v>
       </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8">
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
         <v>2</v>
       </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8"/>
-      <c r="Q8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" t="s">
         <v>35</v>
-      </c>
-      <c r="S8" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/inventario_clasificacion_activo.xlsx
+++ b/inventario_clasificacion_activo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Reporte de inventario de clasificación de activo</t>
   </si>
@@ -62,15 +62,12 @@
     <t>Confidencialidad</t>
   </si>
   <si>
+    <t>Integridad</t>
+  </si>
+  <si>
     <t>Disponibilidad</t>
   </si>
   <si>
-    <t>Integridad</t>
-  </si>
-  <si>
-    <t>Automatizacion</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
@@ -80,55 +77,76 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Financiera Efectiva</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>unidad nueva</t>
-  </si>
-  <si>
-    <t>Nuevo MacroZ</t>
-  </si>
-  <si>
-    <t>Nuevo Proceso</t>
+    <t>Efectiva SA</t>
+  </si>
+  <si>
+    <t>AreaA</t>
+  </si>
+  <si>
+    <t>UnidadA</t>
+  </si>
+  <si>
+    <t>MacroA</t>
+  </si>
+  <si>
+    <t>ProceA</t>
+  </si>
+  <si>
+    <t>ACTIVOA</t>
+  </si>
+  <si>
+    <t>TIPOACTIVOA</t>
+  </si>
+  <si>
+    <t>ACTCATA</t>
+  </si>
+  <si>
+    <t>AV. JAVIER PRADO 1333</t>
+  </si>
+  <si>
+    <t>PosicionA</t>
+  </si>
+  <si>
+    <t>PosicionB</t>
+  </si>
+  <si>
+    <t>NO SIGNIFICATIVO</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>ActivoB</t>
+  </si>
+  <si>
+    <t>Registrado</t>
+  </si>
+  <si>
+    <t>ActivoC</t>
   </si>
   <si>
     <t>ActivoA</t>
   </si>
   <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>Javier Prado</t>
-  </si>
-  <si>
-    <t>Nuevo Puesto</t>
-  </si>
-  <si>
-    <t>Valor A</t>
-  </si>
-  <si>
-    <t>Aprobado</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>Valor B</t>
-  </si>
-  <si>
-    <t>Borrador</t>
-  </si>
-  <si>
-    <t>asd12asda</t>
-  </si>
-  <si>
-    <t>asdasd</t>
+    <t>ACTIVOH</t>
+  </si>
+  <si>
+    <t>ActivoJ</t>
+  </si>
+  <si>
+    <t>Activok</t>
+  </si>
+  <si>
+    <t>ACTIVOM</t>
+  </si>
+  <si>
+    <t>Activon</t>
+  </si>
+  <si>
+    <t>ActivoZ</t>
+  </si>
+  <si>
+    <t>ACTIVOZZ</t>
   </si>
 </sst>
 </file>
@@ -494,7 +512,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:Z6"/>
@@ -600,9 +618,7 @@
       <c r="S6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -612,84 +628,81 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>29</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
       </c>
       <c r="M7" t="s">
         <v>30</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="Q7">
-        <v>8</v>
+      <c r="Q7" t="s">
+        <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="S7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -698,102 +711,509 @@
         <v>33</v>
       </c>
       <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
         <v>27</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>28</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>29</v>
-      </c>
-      <c r="L8" t="s">
-        <v>30</v>
       </c>
       <c r="M8" t="s">
         <v>30</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
-      <c r="Q8">
-        <v>3</v>
+      <c r="Q8" t="s">
+        <v>31</v>
       </c>
       <c r="R8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
         <v>34</v>
-      </c>
-      <c r="S8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
       <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
       <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
         <v>27</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>28</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>29</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
       </c>
       <c r="M9" t="s">
         <v>30</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14">
         <v>8</v>
       </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
         <v>31</v>
       </c>
-      <c r="S9" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" t="s">
-        <v>35</v>
+      <c r="R14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
